--- a/Dokumente/Programmtest_Protokoll uC-Board.xlsx
+++ b/Dokumente/Programmtest_Protokoll uC-Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studmswch.sharepoint.com/sites/WS-EK-2Bj-Original/Freigegebene Dokumente/Mikrokontrollertechnik/Unterlagen/Vorlagen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\uC_Board\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{314847A0-E990-4DAD-96F6-F423CCE5113D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DA682D12-1B00-405A-9F43-31C82EB6EB71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89497EDD-DF89-4807-B5AC-A248953E3265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prüfprotokoll1-20" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Nr.</t>
   </si>
@@ -264,35 +264,23 @@
     <t>MSW, AE2</t>
   </si>
   <si>
-    <t>Port A, LED</t>
-  </si>
-  <si>
     <t>MSW Septembert 2015 / O.Schneider</t>
   </si>
   <si>
-    <t>Port C, Schalter</t>
+    <t>Schalter (Port __)</t>
   </si>
   <si>
-    <t>Port L, Taste</t>
+    <t>Taster (Port __)</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
+    <t>LED, Port __</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="E+H Weidemann Com Book"/>
@@ -359,9 +347,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="E+H Weidemann Com Book"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1460,102 +1453,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1989,7 +1982,7 @@
   <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2008,24 +2001,24 @@
       <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
       <c r="Q1" s="32"/>
       <c r="AC1" s="36" t="s">
         <v>23</v>
@@ -2035,39 +2028,39 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="104" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
       <c r="P3" s="32"/>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
     </row>
     <row r="4" spans="1:30" ht="9.75" customHeight="1" thickBot="1">
       <c r="A4" s="3"/>
@@ -2093,41 +2086,41 @@
       <c r="A5" s="68"/>
       <c r="B5" s="53"/>
       <c r="C5" s="54"/>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="116"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="127"/>
       <c r="P5" s="88" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="54"/>
       <c r="R5" s="54"/>
-      <c r="S5" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="117"/>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="126" t="s">
+      <c r="S5" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
+      <c r="X5" s="96"/>
+      <c r="Y5" s="96"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="127"/>
+      <c r="AB5" s="106"/>
       <c r="AC5" s="19"/>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1">
@@ -2160,23 +2153,23 @@
       <c r="K6" s="42">
         <v>0</v>
       </c>
-      <c r="L6" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="121" t="s">
+      <c r="L6" s="83">
+        <v>7</v>
+      </c>
+      <c r="M6" s="43">
+        <v>6</v>
+      </c>
+      <c r="N6" s="31">
+        <v>1</v>
+      </c>
+      <c r="O6" s="56">
+        <v>0</v>
+      </c>
+      <c r="P6" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="123"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="102"/>
       <c r="S6" s="6">
         <v>7</v>
       </c>
@@ -2201,9 +2194,9 @@
       <c r="Z6" s="45">
         <v>0</v>
       </c>
-      <c r="AA6" s="119"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="124" t="s">
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="99"/>
+      <c r="AC6" s="103" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2229,10 +2222,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="86"/>
       <c r="O7" s="58"/>
-      <c r="P7" s="106" t="s">
+      <c r="P7" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="107"/>
+      <c r="Q7" s="109"/>
       <c r="R7" s="39" t="s">
         <v>1</v>
       </c>
@@ -2250,7 +2243,7 @@
       <c r="AB7" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AC7" s="125"/>
+      <c r="AC7" s="104"/>
     </row>
     <row r="8" spans="1:30" ht="0.75" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -2284,8 +2277,8 @@
     </row>
     <row r="9" spans="1:30" ht="42" customHeight="1">
       <c r="A9" s="72"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="110"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="21"/>
@@ -2298,9 +2291,9 @@
       <c r="M9" s="22"/>
       <c r="N9" s="28"/>
       <c r="O9" s="61"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="112"/>
       <c r="S9" s="21"/>
       <c r="T9" s="22"/>
       <c r="U9" s="21"/>
@@ -2316,8 +2309,8 @@
     </row>
     <row r="10" spans="1:30" ht="42" customHeight="1">
       <c r="A10" s="73"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
@@ -2330,9 +2323,9 @@
       <c r="M10" s="8"/>
       <c r="N10" s="29"/>
       <c r="O10" s="62"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="97"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="123"/>
+      <c r="R10" s="94"/>
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
       <c r="U10" s="7"/>
@@ -2348,8 +2341,8 @@
     </row>
     <row r="11" spans="1:30" ht="42" customHeight="1">
       <c r="A11" s="73"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="97"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
@@ -2362,9 +2355,9 @@
       <c r="M11" s="8"/>
       <c r="N11" s="29"/>
       <c r="O11" s="62"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="97"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="123"/>
+      <c r="R11" s="94"/>
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
       <c r="U11" s="7"/>
@@ -2380,8 +2373,8 @@
     </row>
     <row r="12" spans="1:30" ht="42" customHeight="1">
       <c r="A12" s="73"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
@@ -2394,9 +2387,9 @@
       <c r="M12" s="8"/>
       <c r="N12" s="29"/>
       <c r="O12" s="62"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="94"/>
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
       <c r="U12" s="7"/>
@@ -2412,8 +2405,8 @@
     </row>
     <row r="13" spans="1:30" ht="42" customHeight="1">
       <c r="A13" s="73"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
@@ -2426,9 +2419,9 @@
       <c r="M13" s="8"/>
       <c r="N13" s="29"/>
       <c r="O13" s="62"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="94"/>
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
       <c r="U13" s="7"/>
@@ -2444,8 +2437,8 @@
     </row>
     <row r="14" spans="1:30" ht="42" customHeight="1">
       <c r="A14" s="73"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="7"/>
@@ -2458,9 +2451,9 @@
       <c r="M14" s="8"/>
       <c r="N14" s="29"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="97"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="94"/>
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
       <c r="U14" s="7"/>
@@ -2476,8 +2469,8 @@
     </row>
     <row r="15" spans="1:30" ht="42" customHeight="1">
       <c r="A15" s="73"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
@@ -2490,9 +2483,9 @@
       <c r="M15" s="8"/>
       <c r="N15" s="29"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="97"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="94"/>
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
       <c r="U15" s="7"/>
@@ -2508,8 +2501,8 @@
     </row>
     <row r="16" spans="1:30" ht="42" customHeight="1">
       <c r="A16" s="73"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="97"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="7"/>
@@ -2522,9 +2515,9 @@
       <c r="M16" s="8"/>
       <c r="N16" s="29"/>
       <c r="O16" s="62"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="97"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="94"/>
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
       <c r="U16" s="7"/>
@@ -2540,8 +2533,8 @@
     </row>
     <row r="17" spans="1:30" ht="42" customHeight="1">
       <c r="A17" s="73"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7"/>
@@ -2554,9 +2547,9 @@
       <c r="M17" s="8"/>
       <c r="N17" s="29"/>
       <c r="O17" s="62"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="94"/>
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
       <c r="U17" s="7"/>
@@ -2572,8 +2565,8 @@
     </row>
     <row r="18" spans="1:30" ht="42" customHeight="1" thickBot="1">
       <c r="A18" s="74"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="100"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="63"/>
       <c r="E18" s="64"/>
       <c r="F18" s="63"/>
@@ -2586,9 +2579,9 @@
       <c r="M18" s="64"/>
       <c r="N18" s="65"/>
       <c r="O18" s="66"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="100"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="120"/>
       <c r="S18" s="63"/>
       <c r="T18" s="64"/>
       <c r="U18" s="63"/>
@@ -2623,59 +2616,59 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="S19" s="93" t="s">
+      <c r="S19" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="94"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="122"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="37"/>
     </row>
     <row r="20" spans="1:30" ht="15.75">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="102"/>
-      <c r="AB20" s="102"/>
-      <c r="AC20" s="103"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="116"/>
+      <c r="X20" s="116"/>
+      <c r="Y20" s="116"/>
+      <c r="Z20" s="116"/>
+      <c r="AA20" s="116"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="117"/>
     </row>
     <row r="21" spans="1:30" ht="12.75" customHeight="1"/>
     <row r="22" spans="1:30" ht="15">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="105"/>
+      <c r="B22" s="118"/>
       <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
@@ -2688,7 +2681,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="AC23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2696,22 +2689,9 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="S5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="Q3:AA3"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
     <mergeCell ref="A20:AC20"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="B18:C18"/>
@@ -2723,15 +2703,28 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="P10:R10"/>
     <mergeCell ref="P11:R11"/>
     <mergeCell ref="P12:R12"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:P1"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="Q3:AA3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="P10:R10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A22">
@@ -2774,12 +2767,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2954,24 +2944,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B163FD-8DE6-4721-9FB3-749685874232}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA5B2F1-0F69-42B6-BB44-ECB3031E9EBB}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3918046A-E928-46CD-AA27-2D6E188A5E52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2986,4 +2967,31 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA5B2F1-0F69-42B6-BB44-ECB3031E9EBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e2a48fa4-1071-4a1f-9232-16227662a139"/>
+    <ds:schemaRef ds:uri="3179560c-df02-450a-821b-9e6429c13aab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B163FD-8DE6-4721-9FB3-749685874232}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dokumente/Programmtest_Protokoll uC-Board.xlsx
+++ b/Dokumente/Programmtest_Protokoll uC-Board.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\uC_Board\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89497EDD-DF89-4807-B5AC-A248953E3265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E56C0F3-AA3D-4838-BA19-FFB7F556EEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,12 +246,6 @@
     <t xml:space="preserve">Name:  . . . . . . . . . . . . . . . . . . . . . . . . . </t>
   </si>
   <si>
-    <t>alle nicht ausgefüllten Bits sind X (Don't care)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Erwartete Ausgabe / Reaktion</t>
-  </si>
-  <si>
     <t xml:space="preserve"> IST</t>
   </si>
   <si>
@@ -274,6 +268,12 @@
   </si>
   <si>
     <t>LED, Port __</t>
+  </si>
+  <si>
+    <t>alle nicht ausgefüllten Bits sind 0 (Aus)</t>
+  </si>
+  <si>
+    <t>Erwartete Ausgabe / Reaktion (innerhalb von _____ ms)</t>
   </si>
 </sst>
 </file>
@@ -1456,90 +1456,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1549,19 +1510,58 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1569,13 +1569,6 @@
         <extend val="0"/>
         <color indexed="9"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1658,9 +1651,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1698,9 +1691,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1733,26 +1726,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1785,26 +1761,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1981,8 +1940,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2001,66 +1960,66 @@
       <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
       <c r="Q1" s="32"/>
       <c r="AC1" s="36" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" customHeight="1">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="15">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="107" t="s">
+      <c r="B3" s="109"/>
+      <c r="C3" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
       <c r="P3" s="32"/>
-      <c r="Q3" s="107" t="s">
+      <c r="Q3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
     </row>
     <row r="4" spans="1:30" ht="9.75" customHeight="1" thickBot="1">
       <c r="A4" s="3"/>
@@ -2086,41 +2045,41 @@
       <c r="A5" s="68"/>
       <c r="B5" s="53"/>
       <c r="C5" s="54"/>
-      <c r="D5" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="125" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="D5" s="110" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="114"/>
       <c r="P5" s="88" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="54"/>
       <c r="R5" s="54"/>
-      <c r="S5" s="95" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB5" s="106"/>
+      <c r="S5" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="125"/>
       <c r="AC5" s="19"/>
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1">
@@ -2165,11 +2124,11 @@
       <c r="O6" s="56">
         <v>0</v>
       </c>
-      <c r="P6" s="100" t="s">
+      <c r="P6" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="102"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="121"/>
       <c r="S6" s="6">
         <v>7</v>
       </c>
@@ -2194,9 +2153,9 @@
       <c r="Z6" s="45">
         <v>0</v>
       </c>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="103" t="s">
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="118"/>
+      <c r="AC6" s="122" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2205,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>1</v>
@@ -2222,10 +2181,10 @@
       <c r="M7" s="85"/>
       <c r="N7" s="86"/>
       <c r="O7" s="58"/>
-      <c r="P7" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="109"/>
+      <c r="P7" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="127"/>
       <c r="R7" s="39" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +2202,7 @@
       <c r="AB7" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="AC7" s="104"/>
+      <c r="AC7" s="123"/>
     </row>
     <row r="8" spans="1:30" ht="0.75" customHeight="1" thickBot="1">
       <c r="A8" s="71"/>
@@ -2277,8 +2236,8 @@
     </row>
     <row r="9" spans="1:30" ht="42" customHeight="1">
       <c r="A9" s="72"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="112"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
       <c r="F9" s="21"/>
@@ -2291,9 +2250,9 @@
       <c r="M9" s="22"/>
       <c r="N9" s="28"/>
       <c r="O9" s="61"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="112"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="108"/>
       <c r="S9" s="21"/>
       <c r="T9" s="22"/>
       <c r="U9" s="21"/>
@@ -2310,7 +2269,7 @@
     <row r="10" spans="1:30" ht="42" customHeight="1">
       <c r="A10" s="73"/>
       <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
@@ -2324,8 +2283,8 @@
       <c r="N10" s="29"/>
       <c r="O10" s="62"/>
       <c r="P10" s="93"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
       <c r="U10" s="7"/>
@@ -2342,7 +2301,7 @@
     <row r="11" spans="1:30" ht="42" customHeight="1">
       <c r="A11" s="73"/>
       <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
@@ -2356,8 +2315,8 @@
       <c r="N11" s="29"/>
       <c r="O11" s="62"/>
       <c r="P11" s="93"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
       <c r="U11" s="7"/>
@@ -2374,7 +2333,7 @@
     <row r="12" spans="1:30" ht="42" customHeight="1">
       <c r="A12" s="73"/>
       <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
@@ -2388,8 +2347,8 @@
       <c r="N12" s="29"/>
       <c r="O12" s="62"/>
       <c r="P12" s="93"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
       <c r="U12" s="7"/>
@@ -2406,7 +2365,7 @@
     <row r="13" spans="1:30" ht="42" customHeight="1">
       <c r="A13" s="73"/>
       <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
@@ -2420,8 +2379,8 @@
       <c r="N13" s="29"/>
       <c r="O13" s="62"/>
       <c r="P13" s="93"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
       <c r="U13" s="7"/>
@@ -2438,7 +2397,7 @@
     <row r="14" spans="1:30" ht="42" customHeight="1">
       <c r="A14" s="73"/>
       <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
       <c r="F14" s="7"/>
@@ -2452,8 +2411,8 @@
       <c r="N14" s="29"/>
       <c r="O14" s="62"/>
       <c r="P14" s="93"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
       <c r="U14" s="7"/>
@@ -2470,7 +2429,7 @@
     <row r="15" spans="1:30" ht="42" customHeight="1">
       <c r="A15" s="73"/>
       <c r="B15" s="93"/>
-      <c r="C15" s="94"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="7"/>
@@ -2484,8 +2443,8 @@
       <c r="N15" s="29"/>
       <c r="O15" s="62"/>
       <c r="P15" s="93"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
       <c r="U15" s="7"/>
@@ -2502,7 +2461,7 @@
     <row r="16" spans="1:30" ht="42" customHeight="1">
       <c r="A16" s="73"/>
       <c r="B16" s="93"/>
-      <c r="C16" s="94"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
       <c r="F16" s="7"/>
@@ -2516,8 +2475,8 @@
       <c r="N16" s="29"/>
       <c r="O16" s="62"/>
       <c r="P16" s="93"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
       <c r="U16" s="7"/>
@@ -2534,7 +2493,7 @@
     <row r="17" spans="1:30" ht="42" customHeight="1">
       <c r="A17" s="73"/>
       <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
       <c r="F17" s="7"/>
@@ -2548,8 +2507,8 @@
       <c r="N17" s="29"/>
       <c r="O17" s="62"/>
       <c r="P17" s="93"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
       <c r="U17" s="7"/>
@@ -2565,8 +2524,8 @@
     </row>
     <row r="18" spans="1:30" ht="42" customHeight="1" thickBot="1">
       <c r="A18" s="74"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="63"/>
       <c r="E18" s="64"/>
       <c r="F18" s="63"/>
@@ -2579,9 +2538,9 @@
       <c r="M18" s="64"/>
       <c r="N18" s="65"/>
       <c r="O18" s="66"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="124"/>
-      <c r="R18" s="120"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
       <c r="S18" s="63"/>
       <c r="T18" s="64"/>
       <c r="U18" s="63"/>
@@ -2598,7 +2557,7 @@
     <row r="19" spans="1:30" ht="17.25" customHeight="1" thickBot="1">
       <c r="A19" s="67"/>
       <c r="B19" s="51" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -2616,59 +2575,59 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="S19" s="121" t="s">
+      <c r="S19" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="122"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="105"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="37"/>
     </row>
     <row r="20" spans="1:30" ht="15.75">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="117"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="101"/>
     </row>
     <row r="21" spans="1:30" ht="12.75" customHeight="1"/>
     <row r="22" spans="1:30" ht="15">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="118"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
@@ -2681,7 +2640,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="AC23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2689,25 +2648,13 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="A20:AC20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="P10:R10"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:P1"/>
     <mergeCell ref="P7:Q7"/>
@@ -2718,45 +2665,49 @@
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="C3:O3"/>
     <mergeCell ref="Q3:AA3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="S5:Z5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A20:AC20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="S19:Z19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Seite: ........./.........."</formula>
     </cfRule>
     <cfRule type="cellIs" priority="4" stopIfTrue="1" operator="notEqual">
       <formula>"Seite: ........./.........."</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D7:P7 R7:Z7">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" stopIfTrue="1" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Datum:"</formula>
     </cfRule>
     <cfRule type="cellIs" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>"Datum:"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:O7 U7:Z7">
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7 R7:T7">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="2" stopIfTrue="1" operator="notEqual">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.6692913385826772" bottom="7.874015748031496E-2" header="0.51181102362204722" footer="0.11811023622047245"/>
@@ -2767,12 +2718,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010097CE672EB31FC448AA7E0353CA27D558" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b5a4241025f286e2d05129b61f0bfefa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2a48fa4-1071-4a1f-9232-16227662a139" xmlns:ns3="3179560c-df02-450a-821b-9e6429c13aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cb82ecc49fb1268e1d5b2045ebefada" ns2:_="" ns3:_="">
     <xsd:import namespace="e2a48fa4-1071-4a1f-9232-16227662a139"/>
@@ -2943,6 +2888,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2953,23 +2904,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3918046A-E928-46CD-AA27-2D6E188A5E52}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="be639132-ede9-4a15-86ba-6c18882d3b83"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="931d6234-abc8-4a3c-a988-2189339a825b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA5B2F1-0F69-42B6-BB44-ECB3031E9EBB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2988,6 +2922,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3918046A-E928-46CD-AA27-2D6E188A5E52}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="be639132-ede9-4a15-86ba-6c18882d3b83"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="931d6234-abc8-4a3c-a988-2189339a825b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B163FD-8DE6-4721-9FB3-749685874232}">
   <ds:schemaRefs>
